--- a/ButtonBox材料.xlsx
+++ b/ButtonBox材料.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Union\Desktop\ivan\buttonbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IT Department\Ivan\Dobot\buttonbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126DD451-1501-4674-B009-F2BA1A6893E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E48AFDD-2CBD-44BE-A6B8-AD42ABFC1585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A671B143-C472-48EC-9505-2DC0BD2BAA1C}"/>
   </bookViews>
@@ -36,16 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Button Box 材料清單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杜比線(母對公)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Button連Led燈(紅藍綠黃白)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,10 +94,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熱縮管</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>總計</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -115,6 +107,18 @@
   </si>
   <si>
     <t>木盒(30cm*30cm*10cm)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1to2端子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3to15端子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜比線(母對公)(30cm)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378E21D0-5412-4ED8-8288-A8C08B7C077F}">
-  <dimension ref="F1:O15"/>
+  <dimension ref="F1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -554,95 +558,95 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="M2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="3"/>
       <c r="M3">
         <f>G3*$N$1</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N3" t="str">
         <f>H3</f>
         <v>組</v>
       </c>
       <c r="O3" s="2">
-        <f>I3*$N$1</f>
+        <f>I3*$N$1*G3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3"/>
       <c r="M4">
-        <f t="shared" ref="M4:M6" si="0">G4*$N$1</f>
-        <v>240</v>
+        <f t="shared" ref="M4:M8" si="0">G4*$N$1</f>
+        <v>11</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ref="N4:N6" si="1">H4</f>
+        <f t="shared" ref="N4:N8" si="1">H4</f>
         <v>條</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" ref="O4:O6" si="2">I4*$N$1</f>
+        <f t="shared" ref="O4:O8" si="2">I4*$N$1*G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="3"/>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
@@ -655,18 +659,18 @@
     </row>
     <row r="6" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3"/>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
@@ -677,41 +681,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>個</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>個</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="4">
+        <f>SUM(O3:O8)+SUM(G16:G18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="4">
-        <f>SUM(O3:O6)+SUM(G10:G12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="2"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
